--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BSMI Cert.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BSMI Cert.xlsx
@@ -459,8 +459,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:model_name.png): "C41N2503"
-Page 1 (loc: bbox(top_left, xywh): [493,682,142,28]): "型　　式：C41N2503"</t>
+          <t>Page None (loc: cropped_image:model_name.png): "C41N2503"
+Page 1 (loc: bbox(top_left, xywh): [437,678,142,28]): "C41N2503"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為中文。僅 model_name 有切圖與整頁證據，其餘欄位在切圖與 hints 搜尋均未獲值。頁碼採絕對 1-based。</t>
+          <t>頁碼採絕對 1-based。僅 model_name 有切圖與整頁證據，其餘欄位在切圖與 hints 搜尋均未獲值。文件主要語言為中文，含部分英文。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BSMI Cert.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BSMI Cert.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page None (loc: cropped_image:model_name.png): "C41N2503"
-Page 1 (loc: bbox(top_left, xywh): [437,678,142,28]): "C41N2503"</t>
+Page 1 (loc: bbox(top_left, xywh): [437,682,142,28]): "C41N2503"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。僅 model_name 有切圖與整頁證據，其餘欄位在切圖與 hints 搜尋均未獲值。文件主要語言為中文，含部分英文。</t>
+          <t>頁碼採絕對 1-based。僅 model_name 欄位有切圖與整頁證據，其餘欄位切圖與 hints 搜尋均未獲值。文件主要語言為中文，含部分英文。</t>
         </is>
       </c>
     </row>
